--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_4_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_4_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1706142.012468928</v>
+        <v>-1708222.753862228</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2365544.372062216</v>
+        <v>2365544.372062217</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,47 +674,47 @@
         <v>15.28796821707176</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10.69576364311372</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>8.395781178313161</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0311969618593</v>
+      </c>
+      <c r="U2" t="n">
         <v>244.5627323611424</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>193.2468407049111</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>195.6868312827672</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>79.12911891437963</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
         <v>89.12455904281175</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.5363898835276</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>159.007746537572</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>42.27059569286698</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>44.19077295368341</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>227.7664834517758</v>
+      </c>
+      <c r="G5" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G5" t="n">
-        <v>224.9875377629164</v>
       </c>
       <c r="H5" t="n">
         <v>263.2420339516666</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703756</v>
+        <v>2.475595760993137</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>95.86438072737333</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.9143862661342</v>
+        <v>320.2354673217841</v>
       </c>
       <c r="H8" t="n">
-        <v>158.5829014811511</v>
+        <v>325.2563498869366</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>62.6580987960964</v>
       </c>
       <c r="S8" t="n">
-        <v>177.3830154996371</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.0183419716299</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2345848079164</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>54.03700212563233</v>
+        <v>54.03700212563234</v>
       </c>
       <c r="S9" t="n">
-        <v>2.811859871266374</v>
+        <v>157.8853663825613</v>
       </c>
       <c r="T9" t="n">
         <v>197.1705887800983</v>
@@ -1272,7 +1272,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>96.62147664962453</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>68.56891623320828</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.6902115077868</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>65.28269697256806</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>24.3233725310767</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>4.511658855086949</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>163.5678331858557</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>12.68762643336711</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>168.2674632676811</v>
+        <v>276.9863416118693</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>81.4749688781949</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2290,13 +2290,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>79.09979270925101</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557754</v>
+        <v>80.72864473718472</v>
       </c>
       <c r="D25" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>91.56326686094044</v>
       </c>
       <c r="S25" t="n">
-        <v>179.5197244407508</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T25" t="n">
-        <v>203.1464755155368</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U25" t="n">
-        <v>267.8362668557249</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809756</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X25" t="n">
         <v>207.3085698461848</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.26121844020367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D28" t="n">
         <v>130.21438747536</v>
@@ -2722,10 +2722,10 @@
         <v>128.0328771037168</v>
       </c>
       <c r="F28" t="n">
-        <v>127.0199624800788</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>91.56326686094044</v>
       </c>
       <c r="S28" t="n">
-        <v>0.09739895145425237</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T28" t="n">
-        <v>203.1464755155368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>267.8362668557249</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>230.5481077720584</v>
       </c>
       <c r="W28" t="n">
-        <v>268.1219127937386</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>207.3085698461848</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.4308946390849</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C31" t="n">
-        <v>148.8457355557754</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0328771037168</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>127.0199624800788</v>
+        <v>72.88016994304604</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141958</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094039</v>
+        <v>91.56326686094044</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U31" t="n">
-        <v>267.8362668557249</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V31" t="n">
-        <v>184.816300129694</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
         <v>200.1835678092424</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536.0190374586571</v>
+        <v>52.75671313626202</v>
       </c>
       <c r="C2" t="n">
-        <v>536.0190374586571</v>
+        <v>52.75671313626202</v>
       </c>
       <c r="D2" t="n">
-        <v>288.9859744676041</v>
+        <v>52.75671313626202</v>
       </c>
       <c r="E2" t="n">
-        <v>288.9859744676041</v>
+        <v>52.75671313626202</v>
       </c>
       <c r="F2" t="n">
-        <v>282.0404737184007</v>
+        <v>45.81121238705855</v>
       </c>
       <c r="G2" t="n">
-        <v>266.5980815799443</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="H2" t="n">
-        <v>19.56501858889139</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="I2" t="n">
-        <v>19.56501858889139</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="J2" t="n">
         <v>19.56501858889139</v>
@@ -4349,31 +4349,31 @@
         <v>978.2509294445697</v>
       </c>
       <c r="Q2" t="n">
-        <v>978.2509294445697</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="R2" t="n">
-        <v>978.2509294445697</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="S2" t="n">
-        <v>978.2509294445697</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="T2" t="n">
-        <v>783.05210044971</v>
+        <v>744.486305060557</v>
       </c>
       <c r="U2" t="n">
-        <v>783.05210044971</v>
+        <v>497.4532420695041</v>
       </c>
       <c r="V2" t="n">
-        <v>783.05210044971</v>
+        <v>497.4532420695041</v>
       </c>
       <c r="W2" t="n">
-        <v>783.05210044971</v>
+        <v>497.4532420695041</v>
       </c>
       <c r="X2" t="n">
-        <v>783.05210044971</v>
+        <v>497.4532420695041</v>
       </c>
       <c r="Y2" t="n">
-        <v>783.05210044971</v>
+        <v>299.789776127315</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>328.2410719719956</v>
+        <v>397.3349003715979</v>
       </c>
       <c r="C3" t="n">
-        <v>248.3126690281778</v>
+        <v>222.8818710904709</v>
       </c>
       <c r="D3" t="n">
-        <v>248.3126690281778</v>
+        <v>222.8818710904709</v>
       </c>
       <c r="E3" t="n">
-        <v>248.3126690281778</v>
+        <v>222.8818710904709</v>
       </c>
       <c r="F3" t="n">
-        <v>248.3126690281778</v>
+        <v>222.8818710904709</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5898257028427</v>
+        <v>222.8818710904709</v>
       </c>
       <c r="H3" t="n">
         <v>109.5898257028427</v>
@@ -4410,10 +4410,10 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>146.1858617037014</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L3" t="n">
-        <v>146.1858617037014</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="M3" t="n">
         <v>239.4861551219973</v>
@@ -4431,28 +4431,28 @@
         <v>978.2509294445697</v>
       </c>
       <c r="R3" t="n">
-        <v>877.5769898880285</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="S3" t="n">
-        <v>704.3079091975965</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="T3" t="n">
-        <v>704.3079091975965</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="U3" t="n">
-        <v>704.3079091975965</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="V3" t="n">
-        <v>704.3079091975965</v>
+        <v>644.3679633626508</v>
       </c>
       <c r="W3" t="n">
-        <v>704.3079091975965</v>
+        <v>397.3349003715979</v>
       </c>
       <c r="X3" t="n">
-        <v>496.4564089920636</v>
+        <v>397.3349003715979</v>
       </c>
       <c r="Y3" t="n">
-        <v>496.4564089920636</v>
+        <v>397.3349003715979</v>
       </c>
     </row>
     <row r="4">
@@ -4504,22 +4504,22 @@
         <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="R4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="S4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="T4" t="n">
-        <v>158.0312465334349</v>
+        <v>113.3941021357749</v>
       </c>
       <c r="U4" t="n">
-        <v>158.0312465334349</v>
+        <v>113.3941021357749</v>
       </c>
       <c r="V4" t="n">
         <v>113.3941021357749</v>
@@ -4547,22 +4547,22 @@
         <v>787.0670914110435</v>
       </c>
       <c r="D5" t="n">
-        <v>521.1660470154206</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="E5" t="n">
-        <v>521.1660470154206</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="F5" t="n">
-        <v>514.2205462662172</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="G5" t="n">
-        <v>286.9604071117561</v>
+        <v>291.098892013627</v>
       </c>
       <c r="H5" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I5" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J5" t="n">
         <v>21.05936271613333</v>
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2188146370821</v>
+        <v>272.6264237837916</v>
       </c>
       <c r="C6" t="n">
-        <v>475.7657853559551</v>
+        <v>272.6264237837916</v>
       </c>
       <c r="D6" t="n">
-        <v>326.8313756947039</v>
+        <v>272.6264237837916</v>
       </c>
       <c r="E6" t="n">
-        <v>167.5939206892484</v>
+        <v>272.6264237837916</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613333</v>
+        <v>272.6264237837916</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613333</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="H6" t="n">
         <v>21.05936271613333</v>
@@ -4656,10 +4656,10 @@
         <v>398.8245784347747</v>
       </c>
       <c r="N6" t="n">
-        <v>659.4341920469246</v>
+        <v>524.903632156528</v>
       </c>
       <c r="O6" t="n">
-        <v>919.8472561394167</v>
+        <v>785.3166962490201</v>
       </c>
       <c r="P6" t="n">
         <v>977.3180709271187</v>
@@ -4668,28 +4668,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>954.9030226480426</v>
+        <v>1050.467534027885</v>
       </c>
       <c r="S6" t="n">
-        <v>954.9030226480426</v>
+        <v>877.9789266205264</v>
       </c>
       <c r="T6" t="n">
-        <v>954.9030226480426</v>
+        <v>675.9938690356023</v>
       </c>
       <c r="U6" t="n">
-        <v>954.9030226480426</v>
+        <v>675.9938690356023</v>
       </c>
       <c r="V6" t="n">
-        <v>858.0703148426149</v>
+        <v>440.8417608038596</v>
       </c>
       <c r="W6" t="n">
-        <v>858.0703148426149</v>
+        <v>440.8417608038596</v>
       </c>
       <c r="X6" t="n">
-        <v>650.2188146370821</v>
+        <v>440.8417608038596</v>
       </c>
       <c r="Y6" t="n">
-        <v>650.2188146370821</v>
+        <v>440.8417608038596</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="C7" t="n">
         <v>21.05936271613333</v>
@@ -4762,13 +4762,13 @@
         <v>182.5089274706535</v>
       </c>
       <c r="W7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1409.161249689886</v>
+        <v>1113.930580690318</v>
       </c>
       <c r="C8" t="n">
-        <v>1040.198732749474</v>
+        <v>1113.930580690318</v>
       </c>
       <c r="D8" t="n">
-        <v>1040.198732749474</v>
+        <v>1113.930580690318</v>
       </c>
       <c r="E8" t="n">
-        <v>1040.198732749474</v>
+        <v>1113.930580690318</v>
       </c>
       <c r="F8" t="n">
-        <v>629.2128279598669</v>
+        <v>702.9446759007108</v>
       </c>
       <c r="G8" t="n">
-        <v>211.1174882971051</v>
+        <v>379.4745068888076</v>
       </c>
       <c r="H8" t="n">
         <v>50.93273932624535</v>
@@ -4805,49 +4805,49 @@
         <v>155.7591739168711</v>
       </c>
       <c r="K8" t="n">
-        <v>433.6116301659918</v>
+        <v>433.6116301659915</v>
       </c>
       <c r="L8" t="n">
-        <v>830.5887990800942</v>
+        <v>830.5887990800938</v>
       </c>
       <c r="M8" t="n">
-        <v>1288.908934281618</v>
+        <v>1288.908934281617</v>
       </c>
       <c r="N8" t="n">
         <v>1740.013170883838</v>
       </c>
       <c r="O8" t="n">
-        <v>2120.790471866537</v>
+        <v>2120.790471866536</v>
       </c>
       <c r="P8" t="n">
-        <v>2408.100705753526</v>
+        <v>2408.100705753525</v>
       </c>
       <c r="Q8" t="n">
-        <v>2546.636966312268</v>
+        <v>2546.636966312267</v>
       </c>
       <c r="R8" t="n">
-        <v>2546.636966312268</v>
+        <v>2483.345957427322</v>
       </c>
       <c r="S8" t="n">
-        <v>2367.462203181321</v>
+        <v>2483.345957427322</v>
       </c>
       <c r="T8" t="n">
-        <v>2367.462203181321</v>
+        <v>2264.135510991332</v>
       </c>
       <c r="U8" t="n">
-        <v>2113.689895294537</v>
+        <v>2264.135510991332</v>
       </c>
       <c r="V8" t="n">
-        <v>1782.627007950966</v>
+        <v>2264.135510991332</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.627007950966</v>
+        <v>2264.135510991332</v>
       </c>
       <c r="X8" t="n">
-        <v>1409.161249689886</v>
+        <v>1890.669752730252</v>
       </c>
       <c r="Y8" t="n">
-        <v>1409.161249689886</v>
+        <v>1500.53042075444</v>
       </c>
     </row>
     <row r="9">
@@ -4881,43 +4881,43 @@
         <v>50.93273932624535</v>
       </c>
       <c r="J9" t="n">
-        <v>119.6732659524491</v>
+        <v>50.93273932624535</v>
       </c>
       <c r="K9" t="n">
-        <v>363.7826179014331</v>
+        <v>204.4730194223251</v>
       </c>
       <c r="L9" t="n">
-        <v>753.4221628487733</v>
+        <v>594.1125643696653</v>
       </c>
       <c r="M9" t="n">
-        <v>1260.092355332587</v>
+        <v>1100.782756853479</v>
       </c>
       <c r="N9" t="n">
-        <v>1795.879613554693</v>
+        <v>1636.570015075585</v>
       </c>
       <c r="O9" t="n">
-        <v>2219.604602039585</v>
+        <v>2060.295003560477</v>
       </c>
       <c r="P9" t="n">
-        <v>2383.368595397061</v>
+        <v>2383.36859539706</v>
       </c>
       <c r="Q9" t="n">
-        <v>2546.636966312268</v>
+        <v>2546.636966312267</v>
       </c>
       <c r="R9" t="n">
         <v>2492.054135882336</v>
       </c>
       <c r="S9" t="n">
-        <v>2489.213873386107</v>
+        <v>2332.573967819143</v>
       </c>
       <c r="T9" t="n">
-        <v>2290.051662497119</v>
+        <v>2133.411756930154</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.87740849497</v>
+        <v>1905.237502928006</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.725300263228</v>
+        <v>1670.085394696263</v>
       </c>
       <c r="W9" t="n">
         <v>1572.487943535026</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>422.0377458952213</v>
+        <v>267.084218372851</v>
       </c>
       <c r="C10" t="n">
-        <v>422.0377458952213</v>
+        <v>197.8226868241557</v>
       </c>
       <c r="D10" t="n">
-        <v>422.0377458952213</v>
+        <v>197.8226868241557</v>
       </c>
       <c r="E10" t="n">
-        <v>422.0377458952213</v>
+        <v>197.8226868241557</v>
       </c>
       <c r="F10" t="n">
-        <v>275.1477983973109</v>
+        <v>50.93273932624535</v>
       </c>
       <c r="G10" t="n">
-        <v>275.1477983973109</v>
+        <v>50.93273932624535</v>
       </c>
       <c r="H10" t="n">
-        <v>116.8748574803545</v>
+        <v>50.93273932624535</v>
       </c>
       <c r="I10" t="n">
         <v>50.93273932624535</v>
@@ -4963,49 +4963,49 @@
         <v>50.93273932624535</v>
       </c>
       <c r="K10" t="n">
-        <v>100.5165538294666</v>
+        <v>100.5165538294665</v>
       </c>
       <c r="L10" t="n">
-        <v>219.4931998867072</v>
+        <v>219.4931998867071</v>
       </c>
       <c r="M10" t="n">
-        <v>355.3265144918562</v>
+        <v>355.3265144918561</v>
       </c>
       <c r="N10" t="n">
-        <v>493.3646328999341</v>
+        <v>493.3646328999339</v>
       </c>
       <c r="O10" t="n">
-        <v>604.8488818521903</v>
+        <v>604.8488818521902</v>
       </c>
       <c r="P10" t="n">
-        <v>676.7222341011081</v>
+        <v>676.722234101108</v>
       </c>
       <c r="Q10" t="n">
-        <v>676.7222341011081</v>
+        <v>676.722234101108</v>
       </c>
       <c r="R10" t="n">
-        <v>676.7222341011081</v>
+        <v>676.722234101108</v>
       </c>
       <c r="S10" t="n">
-        <v>676.7222341011081</v>
+        <v>676.722234101108</v>
       </c>
       <c r="T10" t="n">
-        <v>676.7222341011081</v>
+        <v>676.722234101108</v>
       </c>
       <c r="U10" t="n">
-        <v>676.7222341011081</v>
+        <v>676.722234101108</v>
       </c>
       <c r="V10" t="n">
-        <v>422.0377458952213</v>
+        <v>676.722234101108</v>
       </c>
       <c r="W10" t="n">
-        <v>422.0377458952213</v>
+        <v>676.722234101108</v>
       </c>
       <c r="X10" t="n">
-        <v>422.0377458952213</v>
+        <v>448.7326832030907</v>
       </c>
       <c r="Y10" t="n">
-        <v>422.0377458952213</v>
+        <v>448.7326832030907</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>2712.171140804442</v>
+        <v>498.9056400965599</v>
       </c>
       <c r="L12" t="n">
-        <v>3326.06821056133</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M12" t="n">
-        <v>3633.388343841292</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>3963.250971505325</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>4242.791036724022</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>552.3735683412847</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>383.4373854133778</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>233.3207460010421</v>
       </c>
       <c r="E13" t="n">
         <v>208.7516828383384</v>
@@ -5197,13 +5197,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.063975947119</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1383.283935952973</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1383.283935952973</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1128.599447747086</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>839.1822777101255</v>
+        <v>954.8146123150547</v>
       </c>
       <c r="X13" t="n">
-        <v>611.1927268121082</v>
+        <v>954.8146123150547</v>
       </c>
       <c r="Y13" t="n">
-        <v>390.400147668578</v>
+        <v>734.0220331715244</v>
       </c>
     </row>
     <row r="14">
@@ -5258,34 +5258,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>167.8887746690279</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>316.9584588710877</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3351829786181</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507113</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119727</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909233</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227915</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="V16" t="n">
-        <v>620.2426249169047</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="W16" t="n">
-        <v>330.8254548799441</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>912.9836478088579</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.010087623274</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
         <v>265.3924131404652</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1105.163720733589</v>
+        <v>1219.13208711157</v>
       </c>
       <c r="V19" t="n">
-        <v>1105.163720733589</v>
+        <v>964.4475989056829</v>
       </c>
       <c r="W19" t="n">
-        <v>815.7465506966282</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X19" t="n">
-        <v>815.7465506966282</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y19" t="n">
-        <v>594.9539715530981</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="20">
@@ -5735,13 +5735,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,7 +5786,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>167.8887746690279</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>316.9584588710877</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775518</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>607.1380464627239</v>
+        <v>674.9958217162124</v>
       </c>
       <c r="C22" t="n">
-        <v>607.1380464627239</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D22" t="n">
-        <v>607.1380464627239</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E22" t="n">
-        <v>459.2249528803308</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185178</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473454</v>
+        <v>1219.09747995906</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473454</v>
+        <v>1219.09747995906</v>
       </c>
       <c r="V22" t="n">
-        <v>1298.996260473454</v>
+        <v>964.4129917531729</v>
       </c>
       <c r="W22" t="n">
-        <v>1009.579090436494</v>
+        <v>674.9958217162124</v>
       </c>
       <c r="X22" t="n">
-        <v>1009.579090436494</v>
+        <v>674.9958217162124</v>
       </c>
       <c r="Y22" t="n">
-        <v>788.7865112929636</v>
+        <v>674.9958217162124</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5984,13 +5984,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6008,25 +6008,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1427.741252113633</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N24" t="n">
-        <v>1757.603879777666</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>528.6843701993371</v>
+        <v>178.7611770534018</v>
       </c>
       <c r="C25" t="n">
-        <v>378.3351423652203</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>246.8054580466749</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>246.8054580466749</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>246.8054580466749</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K25" t="n">
         <v>296.2193375436548</v>
       </c>
       <c r="L25" t="n">
-        <v>562.1484572422078</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968146</v>
+        <v>851.9322746968145</v>
       </c>
       <c r="N25" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O25" t="n">
-        <v>1392.785511104607</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P25" t="n">
-        <v>1587.602350397714</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q25" t="n">
         <v>1644.652868057293</v>
       </c>
       <c r="R25" t="n">
-        <v>1644.652868057293</v>
+        <v>1552.164719712908</v>
       </c>
       <c r="S25" t="n">
-        <v>1463.319813066636</v>
+        <v>1370.831664722251</v>
       </c>
       <c r="T25" t="n">
-        <v>1258.121352949932</v>
+        <v>1165.633204605547</v>
       </c>
       <c r="U25" t="n">
-        <v>987.5796692572804</v>
+        <v>895.0915209128955</v>
       </c>
       <c r="V25" t="n">
-        <v>751.482136145184</v>
+        <v>658.9939878007988</v>
       </c>
       <c r="W25" t="n">
-        <v>751.482136145184</v>
+        <v>388.1637728576285</v>
       </c>
       <c r="X25" t="n">
-        <v>542.0795403409569</v>
+        <v>178.7611770534018</v>
       </c>
       <c r="Y25" t="n">
-        <v>528.6843701993371</v>
+        <v>178.7611770534018</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>698.8634468392142</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1006.183580119176</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.046207783209</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085868</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>486.375906671554</v>
+        <v>658.0105086879403</v>
       </c>
       <c r="C28" t="n">
-        <v>486.375906671554</v>
+        <v>507.6612808538237</v>
       </c>
       <c r="D28" t="n">
-        <v>354.8462223530087</v>
+        <v>376.1315965352782</v>
       </c>
       <c r="E28" t="n">
-        <v>225.5200838644059</v>
+        <v>246.8054580466753</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>246.8054580466753</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>127.8168586116196</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436549</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L28" t="n">
-        <v>562.148457242208</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M28" t="n">
         <v>851.9322746968146</v>
@@ -6400,34 +6400,34 @@
         <v>1392.785511104607</v>
       </c>
       <c r="P28" t="n">
-        <v>1587.602350397714</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q28" t="n">
         <v>1644.652868057293</v>
       </c>
       <c r="R28" t="n">
-        <v>1644.652868057293</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.554485278046</v>
+        <v>1370.831664722252</v>
       </c>
       <c r="T28" t="n">
-        <v>1439.356025161342</v>
+        <v>1370.831664722252</v>
       </c>
       <c r="U28" t="n">
-        <v>1168.814341468691</v>
+        <v>1100.2899810296</v>
       </c>
       <c r="V28" t="n">
-        <v>1168.814341468691</v>
+        <v>867.4131044921673</v>
       </c>
       <c r="W28" t="n">
-        <v>897.9841265255209</v>
+        <v>867.4131044921673</v>
       </c>
       <c r="X28" t="n">
-        <v>688.5815307212939</v>
+        <v>658.0105086879403</v>
       </c>
       <c r="Y28" t="n">
-        <v>486.375906671554</v>
+        <v>658.0105086879403</v>
       </c>
     </row>
     <row r="29">
@@ -6458,37 +6458,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2279.445761859783</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>729.6727707899331</v>
+        <v>320.4217913224792</v>
       </c>
       <c r="C31" t="n">
-        <v>579.3235429558165</v>
+        <v>320.4217913224792</v>
       </c>
       <c r="D31" t="n">
-        <v>447.7938586372711</v>
+        <v>320.4217913224792</v>
       </c>
       <c r="E31" t="n">
-        <v>318.4677201486683</v>
+        <v>320.4217913224792</v>
       </c>
       <c r="F31" t="n">
-        <v>190.1647277445481</v>
+        <v>246.805458046675</v>
       </c>
       <c r="G31" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>127.8168586116197</v>
@@ -6637,7 +6637,7 @@
         <v>1392.785511104607</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.602350397714</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q31" t="n">
         <v>1644.652868057293</v>
@@ -6646,25 +6646,25 @@
         <v>1552.164719712909</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.164719712909</v>
+        <v>1370.831664722251</v>
       </c>
       <c r="T31" t="n">
-        <v>1552.164719712909</v>
+        <v>1165.633204605547</v>
       </c>
       <c r="U31" t="n">
-        <v>1281.623036020258</v>
+        <v>895.0915209128956</v>
       </c>
       <c r="V31" t="n">
-        <v>1094.939904576122</v>
+        <v>895.0915209128956</v>
       </c>
       <c r="W31" t="n">
-        <v>1094.939904576122</v>
+        <v>895.0915209128956</v>
       </c>
       <c r="X31" t="n">
-        <v>1094.939904576122</v>
+        <v>685.6889251086685</v>
       </c>
       <c r="Y31" t="n">
-        <v>892.7342805263825</v>
+        <v>483.4833010589286</v>
       </c>
     </row>
     <row r="32">
@@ -6695,34 +6695,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>2032.925401907738</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2312.465467126435</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2517.487947908644</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,7 +6883,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083203</v>
@@ -7087,10 +7087,10 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7175,25 +7175,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1894.594339433114</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,22 +7433,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7546,37 +7546,37 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7585,19 +7585,19 @@
         <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7643,34 +7643,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L3" t="n">
         <v>136.8385818314783</v>
       </c>
       <c r="M3" t="n">
-        <v>234.3744992697426</v>
+        <v>362.2743407998537</v>
       </c>
       <c r="N3" t="n">
         <v>373.8491954283779</v>
@@ -8304,13 +8304,13 @@
         <v>129.5917403577181</v>
       </c>
       <c r="N6" t="n">
-        <v>381.709495280812</v>
+        <v>245.8200408460679</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>182.5733142051931</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>56.65615996040509</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>172.981326050049</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>157.5439822974043</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>189.0022427662464</v>
+        <v>213.2603911806632</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>230.7151863772039</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>286.5092576192343</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>165.9802687929767</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>234.4116509503167</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>73.53204524669994</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>52.497333613053</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>19.14409596997011</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>297.2466435761034</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>158.8724419039333</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,16 +11139,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>43.65987261462539</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>20.63789864135492</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>122.1105901154925</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>217.0359022033023</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.97972787253366</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>213.02202895567</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>117.9698891308965</v>
+        <v>9.251010786708015</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>63.94607914473634</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>142.4477683491382</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.4308946390849</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>68.11709081859077</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E25" t="n">
         <v>128.0328771037168</v>
       </c>
       <c r="F25" t="n">
-        <v>127.0199624800788</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H25" t="n">
-        <v>130.5127428246837</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141958</v>
+        <v>92.01815992141964</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094039</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>268.1219127937386</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9223493690387</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.4308946390849</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C28" t="n">
-        <v>148.8457355557754</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.5127428246837</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141958</v>
+        <v>92.01815992141964</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56326686094039</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>179.4223254892965</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>233.7365577809756</v>
+        <v>3.188450008917268</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>54.13979253703286</v>
       </c>
       <c r="G31" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.5127428246837</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>92.01815992141964</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24886,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>179.5197244407508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>203.1464755155368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>48.9202576512816</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937386</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X31" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1299360.196009281</v>
+        <v>1299360.19600928</v>
       </c>
     </row>
     <row r="9">
@@ -26317,34 +26317,34 @@
         <v>102630.2212330354</v>
       </c>
       <c r="D2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
         <v>97757.26493442721</v>
       </c>
       <c r="F2" t="n">
-        <v>97757.26493442725</v>
+        <v>97757.26493442719</v>
       </c>
       <c r="G2" t="n">
-        <v>97757.26493442719</v>
+        <v>97757.26493442722</v>
       </c>
       <c r="H2" t="n">
-        <v>97757.26493442724</v>
+        <v>97757.26493442722</v>
       </c>
       <c r="I2" t="n">
-        <v>99073.3547350575</v>
+        <v>99073.35473505748</v>
       </c>
       <c r="J2" t="n">
-        <v>99073.35473505745</v>
+        <v>99073.35473505748</v>
       </c>
       <c r="K2" t="n">
-        <v>99073.35473505747</v>
+        <v>99073.35473505752</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330356</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330356</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330356</v>
@@ -26369,10 +26369,10 @@
         <v>23645.34018189508</v>
       </c>
       <c r="D3" t="n">
-        <v>392050.2114169283</v>
+        <v>392050.2114169282</v>
       </c>
       <c r="E3" t="n">
-        <v>562418.199155367</v>
+        <v>562418.1991553671</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428193</v>
+        <v>14720.86843428188</v>
       </c>
       <c r="J3" t="n">
-        <v>63988.37154589871</v>
+        <v>63988.37154589876</v>
       </c>
       <c r="K3" t="n">
-        <v>4807.454491750084</v>
+        <v>4807.454491750026</v>
       </c>
       <c r="L3" t="n">
         <v>134293.1781648039</v>
       </c>
       <c r="M3" t="n">
-        <v>144178.0711151428</v>
+        <v>144178.0711151429</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428192</v>
+        <v>14720.86843428189</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,13 +26418,13 @@
         <v>311285.4917481207</v>
       </c>
       <c r="C4" t="n">
-        <v>304469.3167485495</v>
+        <v>304469.3167485496</v>
       </c>
       <c r="D4" t="n">
         <v>186365.8251915761</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26433,31 +26433,31 @@
         <v>29303.54555230234</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>35358.4197237012</v>
+        <v>35358.41972370114</v>
       </c>
       <c r="J4" t="n">
-        <v>35358.41972370124</v>
+        <v>35358.41972370115</v>
       </c>
       <c r="K4" t="n">
-        <v>35358.4197237012</v>
+        <v>35358.41972370114</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.33279362282</v>
+        <v>51722.33279362279</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362283</v>
+        <v>51722.33279362279</v>
       </c>
       <c r="N4" t="n">
+        <v>51722.3327936228</v>
+      </c>
+      <c r="O4" t="n">
         <v>51722.33279362279</v>
       </c>
-      <c r="O4" t="n">
-        <v>51722.33279362283</v>
-      </c>
       <c r="P4" t="n">
-        <v>51722.33279362281</v>
+        <v>51722.3327936228</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>79865.16362346614</v>
+        <v>79865.16362346613</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>93534.28680921868</v>
+        <v>93534.2868092187</v>
       </c>
       <c r="J5" t="n">
-        <v>93534.28680921867</v>
+        <v>93534.2868092187</v>
       </c>
       <c r="K5" t="n">
-        <v>93534.28680921868</v>
+        <v>93534.2868092187</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26525,28 +26525,28 @@
         <v>-275618.8431042426</v>
       </c>
       <c r="D6" t="n">
-        <v>-555650.9789989352</v>
+        <v>-555650.9789989351</v>
       </c>
       <c r="E6" t="n">
-        <v>-585951.8057219587</v>
+        <v>-586049.264847931</v>
       </c>
       <c r="F6" t="n">
-        <v>-23533.6065665917</v>
+        <v>-23631.06569256393</v>
       </c>
       <c r="G6" t="n">
-        <v>-23533.60656659177</v>
+        <v>-23631.06569256392</v>
       </c>
       <c r="H6" t="n">
-        <v>-23533.60656659173</v>
+        <v>-23631.06569256391</v>
       </c>
       <c r="I6" t="n">
-        <v>-44540.22023214432</v>
+        <v>-44611.3575621038</v>
       </c>
       <c r="J6" t="n">
-        <v>-93807.72334376117</v>
+        <v>-93878.86067372069</v>
       </c>
       <c r="K6" t="n">
-        <v>-34626.80628961251</v>
+        <v>-34697.94361957191</v>
       </c>
       <c r="L6" t="n">
         <v>-181100.3955454165</v>
@@ -26555,13 +26555,13 @@
         <v>-190985.2884957555</v>
       </c>
       <c r="N6" t="n">
-        <v>-61528.08581489456</v>
+        <v>-61528.08581489453</v>
       </c>
       <c r="O6" t="n">
-        <v>-46807.21738061265</v>
+        <v>-46807.21738061262</v>
       </c>
       <c r="P6" t="n">
-        <v>-46807.21738061262</v>
+        <v>-46807.21738061264</v>
       </c>
     </row>
   </sheetData>
@@ -26704,13 +26704,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964068</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,43 +26741,43 @@
         <v>23.01338268678938</v>
       </c>
       <c r="D3" t="n">
-        <v>345.3523731889759</v>
+        <v>345.3523731889758</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>636.6592415780669</v>
+        <v>636.6592415780668</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678825</v>
+        <v>49.73080458678832</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>19.33951979354706</v>
       </c>
       <c r="D3" t="n">
-        <v>322.3389905021866</v>
+        <v>322.3389905021864</v>
       </c>
       <c r="E3" t="n">
-        <v>485.0300322651242</v>
+        <v>485.0300322651244</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>18.67930159052418</v>
       </c>
       <c r="D4" t="n">
-        <v>373.4172076264003</v>
+        <v>373.4172076264002</v>
       </c>
       <c r="E4" t="n">
-        <v>578.5544016755061</v>
+        <v>578.5544016755063</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611423</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="K4" t="n">
-        <v>18.6793015905244</v>
+        <v>18.67930159052418</v>
       </c>
       <c r="L4" t="n">
-        <v>373.4172076264003</v>
+        <v>373.4172076264002</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5544016755061</v>
+        <v>578.5544016755063</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>18.67930159052418</v>
       </c>
       <c r="L4" t="n">
-        <v>373.4172076264003</v>
+        <v>373.4172076264002</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5544016755061</v>
+        <v>578.5544016755063</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>110.1203092595405</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,13 +27394,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>94.76081368083408</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
         <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>148.9413660216818</v>
@@ -27430,10 +27430,10 @@
         <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>29.78435625694826</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3444713639914</v>
+        <v>6.781739002849008</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>190.5511073732864</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>93.57938007393611</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,10 +27470,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27515,13 +27515,13 @@
         <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>73.79284061185328</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>7.132250799777182</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>85.60728995481479</v>
@@ -27588,13 +27588,13 @@
         <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9172826158254</v>
+        <v>185.6466869229584</v>
       </c>
       <c r="U4" t="n">
         <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
-        <v>207.9468703701446</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>91.44100766901636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>179.1095622899357</v>
       </c>
       <c r="G5" t="n">
-        <v>190.2226836409149</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H5" t="n">
         <v>75.28528753921178</v>
@@ -27637,7 +27637,7 @@
         <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>87.69233988828964</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.60886626604443</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>136.936206422052</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>7.411751991652892</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>126.6879292296161</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>93.67891894435002</v>
       </c>
       <c r="H8" t="n">
-        <v>166.6734484057855</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>156.9514780432984</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>62.65809879609637</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>177.3830154996371</v>
       </c>
       <c r="T8" t="n">
-        <v>217.0183419716299</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2345848079164</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>155.0735065112949</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>155.0735065112951</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>98.67790486541955</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28026,13 @@
         <v>167.3682127838557</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.6902115077868</v>
       </c>
       <c r="I10" t="n">
-        <v>71.4394886020815</v>
+        <v>136.7221855746496</v>
       </c>
       <c r="J10" t="n">
-        <v>49.32958329223563</v>
+        <v>49.32958329223565</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>34.01383490015902</v>
+        <v>34.01383490015903</v>
       </c>
       <c r="R10" t="n">
         <v>149.2915415772896</v>
@@ -28068,13 +28068,13 @@
         <v>286.2850602706034</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,19 +28561,19 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="C25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="D25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="E25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="F25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="G25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="H25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="I25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="J25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="K25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="L25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="M25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="N25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="P25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="S25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="T25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="U25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="V25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="W25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="X25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
     </row>
     <row r="26">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
     </row>
     <row r="29">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285235</v>
       </c>
     </row>
     <row r="32">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31519,43 +31519,43 @@
         <v>14.21845222883054</v>
       </c>
       <c r="I8" t="n">
-        <v>53.52441152710753</v>
+        <v>53.52441152710751</v>
       </c>
       <c r="J8" t="n">
-        <v>117.8345768198909</v>
+        <v>117.8345768198908</v>
       </c>
       <c r="K8" t="n">
-        <v>176.6034851900993</v>
+        <v>176.6034851900992</v>
       </c>
       <c r="L8" t="n">
-        <v>219.0922397267109</v>
+        <v>219.0922397267108</v>
       </c>
       <c r="M8" t="n">
-        <v>243.7823312511307</v>
+        <v>243.7823312511306</v>
       </c>
       <c r="N8" t="n">
-        <v>247.7269842373546</v>
+        <v>247.7269842373545</v>
       </c>
       <c r="O8" t="n">
-        <v>233.9215665051018</v>
+        <v>233.9215665051017</v>
       </c>
       <c r="P8" t="n">
-        <v>199.6466450453919</v>
+        <v>199.6466450453918</v>
       </c>
       <c r="Q8" t="n">
         <v>149.9263159405468</v>
       </c>
       <c r="R8" t="n">
-        <v>87.21101914505331</v>
+        <v>87.21101914505329</v>
       </c>
       <c r="S8" t="n">
-        <v>31.63705408660821</v>
+        <v>31.6370540866082</v>
       </c>
       <c r="T8" t="n">
-        <v>6.077507592501474</v>
+        <v>6.077507592501473</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1110680999200726</v>
+        <v>0.1110680999200725</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7428334064819483</v>
+        <v>0.7428334064819481</v>
       </c>
       <c r="H9" t="n">
-        <v>7.174206846812502</v>
+        <v>7.174206846812499</v>
       </c>
       <c r="I9" t="n">
         <v>25.57562386352322</v>
       </c>
       <c r="J9" t="n">
-        <v>70.18146670626163</v>
+        <v>70.1814667062616</v>
       </c>
       <c r="K9" t="n">
         <v>119.9513049405521</v>
       </c>
       <c r="L9" t="n">
-        <v>161.2893324030213</v>
+        <v>161.2893324030212</v>
       </c>
       <c r="M9" t="n">
-        <v>188.2170433879919</v>
+        <v>188.2170433879918</v>
       </c>
       <c r="N9" t="n">
-        <v>193.1985884691801</v>
+        <v>193.19858846918</v>
       </c>
       <c r="O9" t="n">
-        <v>176.7389640413432</v>
+        <v>176.7389640413431</v>
       </c>
       <c r="P9" t="n">
         <v>141.8486002254871</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.82203272916941</v>
+        <v>94.82203272916938</v>
       </c>
       <c r="R9" t="n">
-        <v>46.12083202701081</v>
+        <v>46.12083202701079</v>
       </c>
       <c r="S9" t="n">
         <v>13.79780472127653</v>
       </c>
       <c r="T9" t="n">
-        <v>2.994139914723291</v>
+        <v>2.994139914723289</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04887061884749662</v>
+        <v>0.0488706188474966</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6227665746030713</v>
+        <v>0.6227665746030711</v>
       </c>
       <c r="H10" t="n">
-        <v>5.536960999652766</v>
+        <v>5.536960999652764</v>
       </c>
       <c r="I10" t="n">
         <v>18.72828935260873</v>
       </c>
       <c r="J10" t="n">
-        <v>44.02959682443714</v>
+        <v>44.02959682443713</v>
       </c>
       <c r="K10" t="n">
-        <v>72.35415294024773</v>
+        <v>72.3541529402477</v>
       </c>
       <c r="L10" t="n">
-        <v>92.588405100533</v>
+        <v>92.58840510053297</v>
       </c>
       <c r="M10" t="n">
-        <v>97.6214913261887</v>
+        <v>97.62149132618867</v>
       </c>
       <c r="N10" t="n">
-        <v>95.3002704572137</v>
+        <v>95.30027045721367</v>
       </c>
       <c r="O10" t="n">
-        <v>88.02522456298688</v>
+        <v>88.02522456298685</v>
       </c>
       <c r="P10" t="n">
-        <v>75.32078644108415</v>
+        <v>75.32078644108414</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.14820835153537</v>
+        <v>52.14820835153535</v>
       </c>
       <c r="R10" t="n">
-        <v>28.00184979987991</v>
+        <v>28.0018497998799</v>
       </c>
       <c r="S10" t="n">
-        <v>10.85312294103716</v>
+        <v>10.85312294103715</v>
       </c>
       <c r="T10" t="n">
-        <v>2.660911727849486</v>
+        <v>2.660911727849485</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03396908588744029</v>
+        <v>0.03396908588744028</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>127.8998415301111</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>94.24272062454131</v>
+        <v>222.1425621546524</v>
       </c>
       <c r="N3" t="n">
         <v>244.5627323611424</v>
@@ -35024,13 +35024,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>263.2420339516666</v>
+        <v>127.3525795169225</v>
       </c>
       <c r="O6" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P6" t="n">
-        <v>58.05132806838587</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q6" t="n">
         <v>76.41420694903813</v>
@@ -35176,16 +35176,16 @@
         <v>280.6590467162835</v>
       </c>
       <c r="L8" t="n">
-        <v>400.9870393071741</v>
+        <v>400.987039307174</v>
       </c>
       <c r="M8" t="n">
-        <v>462.9496315166905</v>
+        <v>462.9496315166904</v>
       </c>
       <c r="N8" t="n">
-        <v>455.6608450527478</v>
+        <v>455.6608450527477</v>
       </c>
       <c r="O8" t="n">
-        <v>384.6235363461604</v>
+        <v>384.6235363461603</v>
       </c>
       <c r="P8" t="n">
         <v>290.2123574616049</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>69.43487538000377</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>246.5751029787718</v>
+        <v>155.0911920162422</v>
       </c>
       <c r="L9" t="n">
         <v>393.5752979266063</v>
@@ -35261,13 +35261,13 @@
         <v>511.7880732159734</v>
       </c>
       <c r="N9" t="n">
-        <v>541.1992507294003</v>
+        <v>541.1992507294002</v>
       </c>
       <c r="O9" t="n">
-        <v>428.0050388736283</v>
+        <v>428.0050388736282</v>
       </c>
       <c r="P9" t="n">
-        <v>165.4181751085612</v>
+        <v>326.336961451094</v>
       </c>
       <c r="Q9" t="n">
         <v>164.917546378997</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>50.08466111436488</v>
+        <v>50.08466111436485</v>
       </c>
       <c r="L10" t="n">
         <v>120.1784303608491</v>
@@ -35340,13 +35340,13 @@
         <v>137.2053682880293</v>
       </c>
       <c r="N10" t="n">
-        <v>139.4324428364423</v>
+        <v>139.4324428364422</v>
       </c>
       <c r="O10" t="n">
-        <v>112.6103524770266</v>
+        <v>112.6103524770265</v>
       </c>
       <c r="P10" t="n">
-        <v>72.59934570597764</v>
+        <v>72.59934570597763</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>339.5776813541856</v>
+        <v>363.8358297686024</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35504,13 +35504,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>71.38553859468891</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8086013087286</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.38553859468891</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>568.8729598603425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841793</v>
+        <v>30.90885570841788</v>
       </c>
       <c r="K25" t="n">
         <v>170.1035140727629</v>
@@ -36531,10 +36531,10 @@
         <v>254.6384370634552</v>
       </c>
       <c r="P25" t="n">
-        <v>196.7846861546532</v>
+        <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472716</v>
+        <v>57.6267855147271</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>415.237973749001</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>544.836028000783</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841793</v>
+        <v>30.90885570841787</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
@@ -36768,10 +36768,10 @@
         <v>254.6384370634552</v>
       </c>
       <c r="P28" t="n">
-        <v>196.7846861546532</v>
+        <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472716</v>
+        <v>57.6267855147271</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>259.5907485445777</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841793</v>
+        <v>30.90885570841787</v>
       </c>
       <c r="K31" t="n">
         <v>170.1035140727629</v>
@@ -37005,10 +37005,10 @@
         <v>254.6384370634552</v>
       </c>
       <c r="P31" t="n">
-        <v>196.7846861546532</v>
+        <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472716</v>
+        <v>57.6267855147271</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>107.1571287550442</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>504.340058507628</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,19 +37628,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>365.9658568354579</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>376.8544460126382</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>269.8956035973792</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
